--- a/Ahmed_data/Raw_data/Raw_data1.xlsx
+++ b/Ahmed_data/Raw_data/Raw_data1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.hassan\Desktop\Dataset of allelopathic effects of Casuarina equisetifolia-L leaf aquatic extract on seed germination and growth of selected plant crops-Raw data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uqgrodr2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502FD038-3B75-4431-8E61-2F0A0DCD8136}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data1" sheetId="1" r:id="rId1"/>
@@ -67,11 +66,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -112,9 +111,9 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -122,7 +121,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -222,23 +221,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -274,23 +256,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,30 +431,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -571,7 +536,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -612,7 +577,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -653,7 +618,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -694,7 +659,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -735,7 +700,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -776,7 +741,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -817,7 +782,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -858,7 +823,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -899,7 +864,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -940,7 +905,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -981,7 +946,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -1022,7 +987,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>0.05</v>
       </c>
@@ -1063,7 +1028,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>0.05</v>
       </c>
@@ -1104,7 +1069,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>0.05</v>
       </c>
@@ -1145,7 +1110,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>0.05</v>
       </c>
